--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_st.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_st.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.853085565567016</v>
+        <v>11.2306999206543</v>
       </c>
       <c r="C2">
-        <v>2.115031989044098</v>
+        <v>2.971295844598104</v>
       </c>
       <c r="D2">
-        <v>3.042410516738892</v>
+        <v>3.870367527008057</v>
       </c>
       <c r="E2">
-        <v>0.7340071719587833</v>
+        <v>1.087615409167781</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.10878052711487</v>
+        <v>25.99136919975281</v>
       </c>
       <c r="C3">
-        <v>1.383659177394856</v>
+        <v>0.516018338079857</v>
       </c>
       <c r="D3">
-        <v>4.0992112159729</v>
+        <v>4.836140441894531</v>
       </c>
       <c r="E3">
-        <v>0.7767952752549483</v>
+        <v>0.4556748080867094</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36.55962419509888</v>
+        <v>59.13528189659119</v>
       </c>
       <c r="C4">
-        <v>0.6357622365558167</v>
+        <v>1.808454798868864</v>
       </c>
       <c r="D4">
-        <v>3.542449140548706</v>
+        <v>4.586628150939942</v>
       </c>
       <c r="E4">
-        <v>0.1941644272929746</v>
+        <v>1.05522576913545</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.9043399810791</v>
+        <v>23.78871560096741</v>
       </c>
       <c r="C5">
-        <v>2.816526964436854</v>
+        <v>4.015306796721346</v>
       </c>
       <c r="D5">
-        <v>4.15924220085144</v>
+        <v>5.361517715454101</v>
       </c>
       <c r="E5">
-        <v>0.9185033445753353</v>
+        <v>1.021086018197137</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.0575430393219</v>
+        <v>40.1034836769104</v>
       </c>
       <c r="C6">
-        <v>0.7674630747406107</v>
+        <v>0.6345074973004763</v>
       </c>
       <c r="D6">
-        <v>4.290381097793579</v>
+        <v>4.717705869674683</v>
       </c>
       <c r="E6">
-        <v>0.5642238311575164</v>
+        <v>0.5194214965936372</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49.85999746322632</v>
+        <v>81.32642841339111</v>
       </c>
       <c r="C7">
-        <v>1.6434865146148</v>
+        <v>1.949688398212458</v>
       </c>
       <c r="D7">
-        <v>4.365323495864868</v>
+        <v>6.391954183578491</v>
       </c>
       <c r="E7">
-        <v>0.2328767666381385</v>
+        <v>0.5616641431849653</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.33733506202698</v>
+        <v>29.82286334037781</v>
       </c>
       <c r="C8">
-        <v>2.454333752158607</v>
+        <v>2.068643114801585</v>
       </c>
       <c r="D8">
-        <v>4.922406578063965</v>
+        <v>5.425700235366821</v>
       </c>
       <c r="E8">
-        <v>0.8045742242682382</v>
+        <v>0.7237843495138738</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.05741906166077</v>
+        <v>51.30352377891541</v>
       </c>
       <c r="C9">
-        <v>0.4758118050546051</v>
+        <v>1.089541549407851</v>
       </c>
       <c r="D9">
-        <v>5.557573461532593</v>
+        <v>5.854440498352051</v>
       </c>
       <c r="E9">
-        <v>0.9364527266087516</v>
+        <v>0.9118286810324493</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61.76822462081909</v>
+        <v>101.2335909366608</v>
       </c>
       <c r="C10">
-        <v>0.9728082494679905</v>
+        <v>1.807025258564262</v>
       </c>
       <c r="D10">
-        <v>4.649326467514038</v>
+        <v>6.4627685546875</v>
       </c>
       <c r="E10">
-        <v>1.105501425976593</v>
+        <v>1.058819021704893</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.80525827407837</v>
+        <v>27.570969581604</v>
       </c>
       <c r="C11">
-        <v>0.7154927690865145</v>
+        <v>1.093782668877254</v>
       </c>
       <c r="D11">
-        <v>5.046923971176147</v>
+        <v>5.945256900787354</v>
       </c>
       <c r="E11">
-        <v>1.472760103768609</v>
+        <v>0.7922614564639375</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.18654274940491</v>
+        <v>39.66094160079956</v>
       </c>
       <c r="C12">
-        <v>0.7143395980253056</v>
+        <v>2.138188073117419</v>
       </c>
       <c r="D12">
-        <v>3.195880031585693</v>
+        <v>5.053984212875366</v>
       </c>
       <c r="E12">
-        <v>1.077940640271636</v>
+        <v>0.6492859369048031</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>48.42286367416382</v>
+        <v>77.6562933921814</v>
       </c>
       <c r="C13">
-        <v>1.26866325890075</v>
+        <v>0.7816098555580929</v>
       </c>
       <c r="D13">
-        <v>5.341982841491699</v>
+        <v>6.162704992294311</v>
       </c>
       <c r="E13">
-        <v>0.7671264429251856</v>
+        <v>0.8991718615019373</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.9084746837616</v>
+        <v>31.8902533531189</v>
       </c>
       <c r="C14">
-        <v>1.410432875959034</v>
+        <v>2.761132254667194</v>
       </c>
       <c r="D14">
-        <v>3.170469617843628</v>
+        <v>4.632217311859131</v>
       </c>
       <c r="E14">
-        <v>0.7563606660621248</v>
+        <v>1.189366548432257</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.8708824634552</v>
+        <v>51.67038426399231</v>
       </c>
       <c r="C15">
-        <v>0.7127029367202908</v>
+        <v>1.392093567810956</v>
       </c>
       <c r="D15">
-        <v>5.668801355361938</v>
+        <v>6.289325094223022</v>
       </c>
       <c r="E15">
-        <v>0.3651785314037343</v>
+        <v>0.5230741830554476</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66.4797441482544</v>
+        <v>107.3020808696747</v>
       </c>
       <c r="C16">
-        <v>1.379529156303607</v>
+        <v>1.198969463612968</v>
       </c>
       <c r="D16">
-        <v>4.52091908454895</v>
+        <v>5.706632471084594</v>
       </c>
       <c r="E16">
-        <v>1.60072954523503</v>
+        <v>0.2517337689969493</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.75812740325928</v>
+        <v>38.8874749660492</v>
       </c>
       <c r="C17">
-        <v>4.79742665815917</v>
+        <v>4.985177830237797</v>
       </c>
       <c r="D17">
-        <v>4.983015394210815</v>
+        <v>5.757368612289429</v>
       </c>
       <c r="E17">
-        <v>0.1582361279878432</v>
+        <v>0.709901974283347</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39.84827146530152</v>
+        <v>66.97503414154053</v>
       </c>
       <c r="C18">
-        <v>2.048647241824861</v>
+        <v>0.7166124377987397</v>
       </c>
       <c r="D18">
-        <v>5.873222494125367</v>
+        <v>6.557188892364502</v>
       </c>
       <c r="E18">
-        <v>1.568865786616434</v>
+        <v>1.108982465759176</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>78.20913972854615</v>
+        <v>128.8373677253723</v>
       </c>
       <c r="C19">
-        <v>1.996604334942603</v>
+        <v>2.443180435168973</v>
       </c>
       <c r="D19">
-        <v>4.653946161270142</v>
+        <v>6.160861206054688</v>
       </c>
       <c r="E19">
-        <v>1.396044164809694</v>
+        <v>0.7885674049480146</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.92688436508179</v>
+        <v>28.92451629638672</v>
       </c>
       <c r="C20">
-        <v>0.9702183889315427</v>
+        <v>0.7937317432736148</v>
       </c>
       <c r="D20">
-        <v>5.657310771942138</v>
+        <v>6.488050222396851</v>
       </c>
       <c r="E20">
-        <v>0.8794152954425516</v>
+        <v>0.5724560462326669</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.66461424827576</v>
+        <v>41.97727036476135</v>
       </c>
       <c r="C21">
-        <v>0.5859337355925849</v>
+        <v>2.063549679190787</v>
       </c>
       <c r="D21">
-        <v>3.854646587371826</v>
+        <v>5.949520444869995</v>
       </c>
       <c r="E21">
-        <v>1.279672344349974</v>
+        <v>0.9613744369299166</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.19413342475891</v>
+        <v>81.73249926567078</v>
       </c>
       <c r="C22">
-        <v>1.52339778583908</v>
+        <v>0.518584792548626</v>
       </c>
       <c r="D22">
-        <v>4.932285308837891</v>
+        <v>5.743704700469971</v>
       </c>
       <c r="E22">
-        <v>1.342002011422853</v>
+        <v>1.28543065220374</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.72819423675537</v>
+        <v>31.94565553665161</v>
       </c>
       <c r="C23">
-        <v>2.139276611055366</v>
+        <v>2.943518472048686</v>
       </c>
       <c r="D23">
-        <v>3.906106567382813</v>
+        <v>5.665138578414917</v>
       </c>
       <c r="E23">
-        <v>1.144779966881126</v>
+        <v>0.9787103584443377</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.53676428794861</v>
+        <v>53.64950928688049</v>
       </c>
       <c r="C24">
-        <v>1.465788747922932</v>
+        <v>0.8609053795534301</v>
       </c>
       <c r="D24">
-        <v>6.16211051940918</v>
+        <v>6.394675445556641</v>
       </c>
       <c r="E24">
-        <v>0.4760691234374029</v>
+        <v>0.455936204128335</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>70.40834913253784</v>
+        <v>111.4323040008545</v>
       </c>
       <c r="C25">
-        <v>1.24830562687741</v>
+        <v>1.586672631003084</v>
       </c>
       <c r="D25">
-        <v>4.666320705413819</v>
+        <v>6.218720531463623</v>
       </c>
       <c r="E25">
-        <v>1.662009911936122</v>
+        <v>0.3179837262315545</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>26.00947122573853</v>
+        <v>39.82794303894043</v>
       </c>
       <c r="C26">
-        <v>4.632673039217543</v>
+        <v>3.871012218011783</v>
       </c>
       <c r="D26">
-        <v>4.863393115997314</v>
+        <v>5.864966106414795</v>
       </c>
       <c r="E26">
-        <v>1.053552624979827</v>
+        <v>0.6133932934785349</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>42.23780488967896</v>
+        <v>67.70381951332092</v>
       </c>
       <c r="C27">
-        <v>1.024321850243714</v>
+        <v>1.384393494544385</v>
       </c>
       <c r="D27">
-        <v>5.139433097839356</v>
+        <v>5.852477884292602</v>
       </c>
       <c r="E27">
-        <v>0.695291992658631</v>
+        <v>1.118795527552529</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>66.96294498443604</v>
+        <v>103.9493452548981</v>
       </c>
       <c r="C28">
-        <v>8.798590550675536</v>
+        <v>13.94627770049751</v>
       </c>
       <c r="D28">
-        <v>1.885057210922241</v>
+        <v>2.383289098739624</v>
       </c>
       <c r="E28">
-        <v>1.023235695042395</v>
+        <v>1.375375290381371</v>
       </c>
       <c r="F28">
         <v>30</v>

--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_st.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_st.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.2306999206543</v>
+        <v>6.853085565567016</v>
       </c>
       <c r="C2">
-        <v>2.971295844598104</v>
+        <v>2.115031989044098</v>
       </c>
       <c r="D2">
-        <v>3.870367527008057</v>
+        <v>3.042410516738892</v>
       </c>
       <c r="E2">
-        <v>1.087615409167781</v>
+        <v>0.7340071719587833</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.99136919975281</v>
+        <v>16.10878052711487</v>
       </c>
       <c r="C3">
-        <v>0.516018338079857</v>
+        <v>1.383659177394856</v>
       </c>
       <c r="D3">
-        <v>4.836140441894531</v>
+        <v>4.0992112159729</v>
       </c>
       <c r="E3">
-        <v>0.4556748080867094</v>
+        <v>0.7767952752549483</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59.13528189659119</v>
+        <v>36.55962419509888</v>
       </c>
       <c r="C4">
-        <v>1.808454798868864</v>
+        <v>0.6357622365558167</v>
       </c>
       <c r="D4">
-        <v>4.586628150939942</v>
+        <v>3.542449140548706</v>
       </c>
       <c r="E4">
-        <v>1.05522576913545</v>
+        <v>0.1941644272929746</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.78871560096741</v>
+        <v>14.9043399810791</v>
       </c>
       <c r="C5">
-        <v>4.015306796721346</v>
+        <v>2.816526964436854</v>
       </c>
       <c r="D5">
-        <v>5.361517715454101</v>
+        <v>4.15924220085144</v>
       </c>
       <c r="E5">
-        <v>1.021086018197137</v>
+        <v>0.9185033445753353</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40.1034836769104</v>
+        <v>24.0575430393219</v>
       </c>
       <c r="C6">
-        <v>0.6345074973004763</v>
+        <v>0.7674630747406107</v>
       </c>
       <c r="D6">
-        <v>4.717705869674683</v>
+        <v>4.290381097793579</v>
       </c>
       <c r="E6">
-        <v>0.5194214965936372</v>
+        <v>0.5642238311575164</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81.32642841339111</v>
+        <v>49.85999746322632</v>
       </c>
       <c r="C7">
-        <v>1.949688398212458</v>
+        <v>1.6434865146148</v>
       </c>
       <c r="D7">
-        <v>6.391954183578491</v>
+        <v>4.365323495864868</v>
       </c>
       <c r="E7">
-        <v>0.5616641431849653</v>
+        <v>0.2328767666381385</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.82286334037781</v>
+        <v>19.33733506202698</v>
       </c>
       <c r="C8">
-        <v>2.068643114801585</v>
+        <v>2.454333752158607</v>
       </c>
       <c r="D8">
-        <v>5.425700235366821</v>
+        <v>4.922406578063965</v>
       </c>
       <c r="E8">
-        <v>0.7237843495138738</v>
+        <v>0.8045742242682382</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>51.30352377891541</v>
+        <v>31.05741906166077</v>
       </c>
       <c r="C9">
-        <v>1.089541549407851</v>
+        <v>0.4758118050546051</v>
       </c>
       <c r="D9">
-        <v>5.854440498352051</v>
+        <v>5.557573461532593</v>
       </c>
       <c r="E9">
-        <v>0.9118286810324493</v>
+        <v>0.9364527266087516</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>101.2335909366608</v>
+        <v>61.76822462081909</v>
       </c>
       <c r="C10">
-        <v>1.807025258564262</v>
+        <v>0.9728082494679905</v>
       </c>
       <c r="D10">
-        <v>6.4627685546875</v>
+        <v>4.649326467514038</v>
       </c>
       <c r="E10">
-        <v>1.058819021704893</v>
+        <v>1.105501425976593</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.570969581604</v>
+        <v>17.80525827407837</v>
       </c>
       <c r="C11">
-        <v>1.093782668877254</v>
+        <v>0.7154927690865145</v>
       </c>
       <c r="D11">
-        <v>5.945256900787354</v>
+        <v>5.046923971176147</v>
       </c>
       <c r="E11">
-        <v>0.7922614564639375</v>
+        <v>1.472760103768609</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.66094160079956</v>
+        <v>25.18654274940491</v>
       </c>
       <c r="C12">
-        <v>2.138188073117419</v>
+        <v>0.7143395980253056</v>
       </c>
       <c r="D12">
-        <v>5.053984212875366</v>
+        <v>3.195880031585693</v>
       </c>
       <c r="E12">
-        <v>0.6492859369048031</v>
+        <v>1.077940640271636</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>77.6562933921814</v>
+        <v>48.42286367416382</v>
       </c>
       <c r="C13">
-        <v>0.7816098555580929</v>
+        <v>1.26866325890075</v>
       </c>
       <c r="D13">
-        <v>6.162704992294311</v>
+        <v>5.341982841491699</v>
       </c>
       <c r="E13">
-        <v>0.8991718615019373</v>
+        <v>0.7671264429251856</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.8902533531189</v>
+        <v>21.9084746837616</v>
       </c>
       <c r="C14">
-        <v>2.761132254667194</v>
+        <v>1.410432875959034</v>
       </c>
       <c r="D14">
-        <v>4.632217311859131</v>
+        <v>3.170469617843628</v>
       </c>
       <c r="E14">
-        <v>1.189366548432257</v>
+        <v>0.7563606660621248</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51.67038426399231</v>
+        <v>31.8708824634552</v>
       </c>
       <c r="C15">
-        <v>1.392093567810956</v>
+        <v>0.7127029367202908</v>
       </c>
       <c r="D15">
-        <v>6.289325094223022</v>
+        <v>5.668801355361938</v>
       </c>
       <c r="E15">
-        <v>0.5230741830554476</v>
+        <v>0.3651785314037343</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>107.3020808696747</v>
+        <v>66.4797441482544</v>
       </c>
       <c r="C16">
-        <v>1.198969463612968</v>
+        <v>1.379529156303607</v>
       </c>
       <c r="D16">
-        <v>5.706632471084594</v>
+        <v>4.52091908454895</v>
       </c>
       <c r="E16">
-        <v>0.2517337689969493</v>
+        <v>1.60072954523503</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.8874749660492</v>
+        <v>24.75812740325928</v>
       </c>
       <c r="C17">
-        <v>4.985177830237797</v>
+        <v>4.79742665815917</v>
       </c>
       <c r="D17">
-        <v>5.757368612289429</v>
+        <v>4.983015394210815</v>
       </c>
       <c r="E17">
-        <v>0.709901974283347</v>
+        <v>0.1582361279878432</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>66.97503414154053</v>
+        <v>39.84827146530152</v>
       </c>
       <c r="C18">
-        <v>0.7166124377987397</v>
+        <v>2.048647241824861</v>
       </c>
       <c r="D18">
-        <v>6.557188892364502</v>
+        <v>5.873222494125367</v>
       </c>
       <c r="E18">
-        <v>1.108982465759176</v>
+        <v>1.568865786616434</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>128.8373677253723</v>
+        <v>78.20913972854615</v>
       </c>
       <c r="C19">
-        <v>2.443180435168973</v>
+        <v>1.996604334942603</v>
       </c>
       <c r="D19">
-        <v>6.160861206054688</v>
+        <v>4.653946161270142</v>
       </c>
       <c r="E19">
-        <v>0.7885674049480146</v>
+        <v>1.396044164809694</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.92451629638672</v>
+        <v>19.92688436508179</v>
       </c>
       <c r="C20">
-        <v>0.7937317432736148</v>
+        <v>0.9702183889315427</v>
       </c>
       <c r="D20">
-        <v>6.488050222396851</v>
+        <v>5.657310771942138</v>
       </c>
       <c r="E20">
-        <v>0.5724560462326669</v>
+        <v>0.8794152954425516</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.97727036476135</v>
+        <v>26.66461424827576</v>
       </c>
       <c r="C21">
-        <v>2.063549679190787</v>
+        <v>0.5859337355925849</v>
       </c>
       <c r="D21">
-        <v>5.949520444869995</v>
+        <v>3.854646587371826</v>
       </c>
       <c r="E21">
-        <v>0.9613744369299166</v>
+        <v>1.279672344349974</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>81.73249926567078</v>
+        <v>49.19413342475891</v>
       </c>
       <c r="C22">
-        <v>0.518584792548626</v>
+        <v>1.52339778583908</v>
       </c>
       <c r="D22">
-        <v>5.743704700469971</v>
+        <v>4.932285308837891</v>
       </c>
       <c r="E22">
-        <v>1.28543065220374</v>
+        <v>1.342002011422853</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.94565553665161</v>
+        <v>21.72819423675537</v>
       </c>
       <c r="C23">
-        <v>2.943518472048686</v>
+        <v>2.139276611055366</v>
       </c>
       <c r="D23">
-        <v>5.665138578414917</v>
+        <v>3.906106567382813</v>
       </c>
       <c r="E23">
-        <v>0.9787103584443377</v>
+        <v>1.144779966881126</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>53.64950928688049</v>
+        <v>32.53676428794861</v>
       </c>
       <c r="C24">
-        <v>0.8609053795534301</v>
+        <v>1.465788747922932</v>
       </c>
       <c r="D24">
-        <v>6.394675445556641</v>
+        <v>6.16211051940918</v>
       </c>
       <c r="E24">
-        <v>0.455936204128335</v>
+        <v>0.4760691234374029</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111.4323040008545</v>
+        <v>70.40834913253784</v>
       </c>
       <c r="C25">
-        <v>1.586672631003084</v>
+        <v>1.24830562687741</v>
       </c>
       <c r="D25">
-        <v>6.218720531463623</v>
+        <v>4.666320705413819</v>
       </c>
       <c r="E25">
-        <v>0.3179837262315545</v>
+        <v>1.662009911936122</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>39.82794303894043</v>
+        <v>26.00947122573853</v>
       </c>
       <c r="C26">
-        <v>3.871012218011783</v>
+        <v>4.632673039217543</v>
       </c>
       <c r="D26">
-        <v>5.864966106414795</v>
+        <v>4.863393115997314</v>
       </c>
       <c r="E26">
-        <v>0.6133932934785349</v>
+        <v>1.053552624979827</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>67.70381951332092</v>
+        <v>42.23780488967896</v>
       </c>
       <c r="C27">
-        <v>1.384393494544385</v>
+        <v>1.024321850243714</v>
       </c>
       <c r="D27">
-        <v>5.852477884292602</v>
+        <v>5.139433097839356</v>
       </c>
       <c r="E27">
-        <v>1.118795527552529</v>
+        <v>0.695291992658631</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>103.9493452548981</v>
+        <v>66.96294498443604</v>
       </c>
       <c r="C28">
-        <v>13.94627770049751</v>
+        <v>8.798590550675536</v>
       </c>
       <c r="D28">
-        <v>2.383289098739624</v>
+        <v>1.885057210922241</v>
       </c>
       <c r="E28">
-        <v>1.375375290381371</v>
+        <v>1.023235695042395</v>
       </c>
       <c r="F28">
         <v>30</v>
